--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/28_Edirne_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/28_Edirne_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4124803D-7161-427D-9E26-57604FD45411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A8DEC1-21A7-4830-8613-F4B37612CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{9C047F75-5AED-437E-AF65-C7A962C7A6B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{3584D5E2-FCEF-4008-8C8F-B17065901791}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="139" r:id="rId1"/>
@@ -794,14 +794,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1B959907-4E18-406F-9560-90FA13CFD16C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{436C7D42-3EC6-4B18-BC16-34F484A810DF}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{62E104E7-A775-444C-9BCA-665DC75D0FB0}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{D7A09D9F-4CFF-4EA0-97E1-62267EBAE0FE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5204E373-ECF9-4F8D-BCDE-F5EF57E09BFD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8661FEED-22D1-4059-B630-FA4B2AD4C70F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9728541B-AEAE-4932-A5A3-1F656534874C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8A526BA5-273A-4AC3-B1DE-FDDB1F3316EE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{ED73849A-2195-44D7-8C18-AC4D2DCE8389}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{722AFBDA-90E9-4CA0-AFA7-1D777A9B137A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8ABF7FEF-DA1A-4BB7-989B-BC329281D5FD}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{4963CD03-51A3-4C20-83FE-FE63A4AC95FD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6548A8AC-F0C7-4FC4-AA0D-9EB9FB629DEB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0E80EDD9-2EEF-45AC-8382-4979C1955FD2}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{DE79C86D-A777-424C-9095-5823F26E79C6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BFE0DF12-C40E-4C7C-8514-76B900150FF9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8634DA-3981-4FFB-B526-F421170C771C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4B5DD-AF40-4E60-90A0-4ED158F1174E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2450,7 +2450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C869A5CA-4C6A-4BA6-8E0A-322B2CF81D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBEBE94-8064-4923-8DE5-4DF4078C540B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3735,7 +3735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A323829-B561-4336-BC7E-4ECD4E594991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C74C58-0E45-436C-A954-EB8A0DCDA3FD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5026,7 +5026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E185D4E9-4BB9-46CC-BA97-3478B2CA5AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077168C8-3E06-49A9-B769-501712DF201C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6317,7 +6317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F367B6A-CC17-45CB-841F-C3EF256AC4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14999E64-CA55-4596-A10C-804DC8034D4F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7594,7 +7594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A1841F-0446-46F0-9F9B-5F397CAFDFDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4DFDBF-E131-456F-AD48-4037E8CE0446}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
